--- a/HELP/ComandosYMas.xlsx
+++ b/HELP/ComandosYMas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dscpc\Downloads\INSTALACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\DSC\DARWINET\darwincitoPrueba\HELP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="intallar" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">Node.js es un entorno de ejecución de JavaScript del lado del servidor </t>
   </si>
@@ -1091,6 +1091,27 @@
   </si>
   <si>
     <t>GIT BASH</t>
+  </si>
+  <si>
+    <t>npm install</t>
+  </si>
+  <si>
+    <t>instalar todas las dependencias declaradas en el archivo package.json:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vuelve a cargar los archivos del </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>node_modules</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1293,7 +1314,7 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>474410</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>178399</xdr:rowOff>
+      <xdr:rowOff>127111</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1675,9 +1696,11 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1862,6 +1885,30 @@
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2056,7 @@
   </sheetPr>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
